--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/144.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/144.xlsx
@@ -479,13 +479,13 @@
         <v>-5.948164234060553</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.152790831682063</v>
+        <v>-6.240651174087391</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.586169784702788</v>
+        <v>-3.617459428651043</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.65016869252966</v>
+        <v>-10.11762873054408</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.78252508291545</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.921689830648644</v>
+        <v>-6.974403102687721</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.688848706921735</v>
+        <v>-3.700728993608339</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.50646611369043</v>
+        <v>-9.990465661935621</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.527941247152095</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.26916621570089</v>
+        <v>-7.346867201836769</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.729070566415845</v>
+        <v>-3.750587085637137</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.991995921084966</v>
+        <v>-9.496680857384078</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.185335290157086</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.888217154196528</v>
+        <v>-7.938270806500003</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.427409064713459</v>
+        <v>-3.460483196168138</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.63193523235728</v>
+        <v>-9.126162582968062</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.746160918706252</v>
       </c>
       <c r="E6" t="n">
-        <v>-8.615779600103343</v>
+        <v>-8.660650905127888</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.356469575074522</v>
+        <v>-3.403829384594327</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.311519500313407</v>
+        <v>-8.79308432313888</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.20348305092248</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.225081858906352</v>
+        <v>-9.294476422375343</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.242237929629055</v>
+        <v>-3.291049774188334</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.763329827346835</v>
+        <v>-8.274668701991819</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.558291957677997</v>
       </c>
       <c r="E8" t="n">
-        <v>-9.899021677496844</v>
+        <v>-9.954125673893842</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.108978269457554</v>
+        <v>-3.158083454428848</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.138280077425494</v>
+        <v>-7.666212241376787</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.812875290749812</v>
       </c>
       <c r="E9" t="n">
-        <v>-10.57696559271134</v>
+        <v>-10.61915772197282</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.993675931508232</v>
+        <v>-3.039940603489848</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.595165193586779</v>
+        <v>-7.13105666071741</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.990638775301862</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.77855401285484</v>
+        <v>-10.8373883214913</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.792669303181891</v>
+        <v>-2.841275809452759</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.211744830048974</v>
+        <v>-6.783286935253149</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.117669731147851</v>
       </c>
       <c r="E11" t="n">
-        <v>-11.53011659347134</v>
+        <v>-11.59815201303133</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.845749250735986</v>
+        <v>-2.891720582305588</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.56577990875097</v>
+        <v>-6.138490486596337</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2434976511408961</v>
       </c>
       <c r="E12" t="n">
-        <v>-12.11563872287368</v>
+        <v>-12.1837132544886</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.442513742366575</v>
+        <v>-2.500736925144665</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.020900093433299</v>
+        <v>-5.591611067470097</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.5939369633464922</v>
       </c>
       <c r="E13" t="n">
-        <v>-13.06476118197534</v>
+        <v>-13.13159879485294</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.144968784446132</v>
+        <v>-2.232423339281506</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.288776204119652</v>
+        <v>-4.856455993898964</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.348355660744025</v>
       </c>
       <c r="E14" t="n">
-        <v>-13.5476386122068</v>
+        <v>-13.60894675831791</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.073183496619219</v>
+        <v>-2.144900338349994</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.721959414990134</v>
+        <v>-4.323642247528839</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>2.001472785440318</v>
       </c>
       <c r="E15" t="n">
-        <v>-14.31901633765491</v>
+        <v>-14.4068522350259</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.911797379942357</v>
+        <v>-1.974332666777066</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.022332754320871</v>
+        <v>-3.625575180050122</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>2.538813173113264</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.09685244117421</v>
+        <v>-15.1537751481257</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.521620408914476</v>
+        <v>-1.597483128468395</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.83886788263302</v>
+        <v>-3.434786576075633</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.969083109036892</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.0281349142185</v>
+        <v>-16.11374631346505</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.152123936933644</v>
+        <v>-1.227351085594865</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.466076220023889</v>
+        <v>-3.071225358431237</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>3.299089851578545</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.66852636768822</v>
+        <v>-16.76531892563941</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9930307644773652</v>
+        <v>-1.066947659298252</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.259061002258109</v>
+        <v>-2.867519998314358</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>3.541821410790903</v>
       </c>
       <c r="E19" t="n">
-        <v>-17.43587066247112</v>
+        <v>-17.55152500891487</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5056261138871463</v>
+        <v>-0.5858644945869544</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.75695021901221</v>
+        <v>-2.41090631297197</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.701816998188609</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.3458175095482</v>
+        <v>-18.42495586370296</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.2440593575003297</v>
+        <v>-0.3154535247778887</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.849225334618363</v>
+        <v>-2.527484681713557</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.783516224032493</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.57526349081939</v>
+        <v>-18.70494439796431</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1411357155301652</v>
+        <v>0.0746647781675896</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.929678831620315</v>
+        <v>-2.648199150264554</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.788136021659922</v>
       </c>
       <c r="E22" t="n">
-        <v>-19.08297707593477</v>
+        <v>-19.2292659394066</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5581435562436757</v>
+        <v>0.5122846718320135</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.907404516334651</v>
+        <v>-2.652296138019029</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3.721733813659867</v>
       </c>
       <c r="E23" t="n">
-        <v>-19.59956909752047</v>
+        <v>-19.73035492021732</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6229326752440326</v>
+        <v>0.5993529951249018</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.82198867736278</v>
+        <v>-2.584114048253033</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>3.595115350908341</v>
       </c>
       <c r="E24" t="n">
-        <v>-19.8501844785254</v>
+        <v>-19.98092141115357</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6633500950128185</v>
+        <v>0.6400050872232996</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.242570382096005</v>
+        <v>-3.01451776778189</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.427400715838977</v>
       </c>
       <c r="E25" t="n">
-        <v>-20.41376963411589</v>
+        <v>-20.54055624919559</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8594823834928454</v>
+        <v>0.8609784195941215</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.41536255179338</v>
+        <v>-3.212634993049885</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.240884611713716</v>
       </c>
       <c r="E26" t="n">
-        <v>-20.36297285276864</v>
+        <v>-20.49482447896247</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8729711534386638</v>
+        <v>0.884284315328705</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.631349097159949</v>
+        <v>-3.469777198222143</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.060447111172665</v>
       </c>
       <c r="E27" t="n">
-        <v>-20.57747314004767</v>
+        <v>-20.72238330358303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.7179749687368592</v>
+        <v>0.7415497598491231</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.934936867567899</v>
+        <v>-3.769654212418105</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.905053438672111</v>
       </c>
       <c r="E28" t="n">
-        <v>-20.76437009455609</v>
+        <v>-20.89224206916025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8186738431747064</v>
+        <v>0.8281487384827876</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.26470526974818</v>
+        <v>-4.105587652257565</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.789083139337699</v>
       </c>
       <c r="E29" t="n">
-        <v>-20.6031502041127</v>
+        <v>-20.73586718452198</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5920879309206662</v>
+        <v>0.6163422939874312</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.465873235301129</v>
+        <v>-4.324082258146861</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.715219200512188</v>
       </c>
       <c r="E30" t="n">
-        <v>-20.29316761272283</v>
+        <v>-20.41634125172789</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6345440665529556</v>
+        <v>0.6516262565459564</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.942585627873404</v>
+        <v>-4.820463125344736</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.680239741770364</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.16708990363882</v>
+        <v>-20.31273341820422</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5888660753953693</v>
+        <v>0.6108372722552851</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.008856115954437</v>
+        <v>-4.908025238331183</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.669360653144519</v>
       </c>
       <c r="E32" t="n">
-        <v>-19.98791757998013</v>
+        <v>-20.13777541846481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3383582525415142</v>
+        <v>0.3757200430184783</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.354758240795536</v>
+        <v>-5.275932783080266</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.666434213159004</v>
       </c>
       <c r="E33" t="n">
-        <v>-19.60577813624145</v>
+        <v>-19.75207188872015</v>
       </c>
       <c r="F33" t="n">
-        <v>0.203861673632684</v>
+        <v>0.2389891879714679</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.505021866850167</v>
+        <v>-5.408283087974521</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.64945379397851</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.27496837559852</v>
+        <v>-19.41827005587466</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09738399307814335</v>
+        <v>0.1450273649962295</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.694852225478741</v>
+        <v>-5.615122301493091</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.602691334891554</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.78510455455424</v>
+        <v>-18.91945446325707</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02676744730029483</v>
+        <v>0.007137815321760333</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.535578159768385</v>
+        <v>-5.446832907120146</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.511878538820183</v>
       </c>
       <c r="E36" t="n">
-        <v>-18.29541184875031</v>
+        <v>-18.45178184438172</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.03723970000922665</v>
+        <v>-0.006566070926202266</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.633720083614836</v>
+        <v>-5.557256016216287</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.372385635201746</v>
       </c>
       <c r="E37" t="n">
-        <v>-17.942684670323</v>
+        <v>-18.08541922580258</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07115447123714466</v>
+        <v>0.09161496497518372</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.29865199799082</v>
+        <v>-5.20209411236925</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.183613252697643</v>
       </c>
       <c r="E38" t="n">
-        <v>-17.41864180227212</v>
+        <v>-17.57844876973097</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.05700106576529687</v>
+        <v>-0.05725040511550954</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.247820993595505</v>
+        <v>-5.133159115545749</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.952202884834913</v>
       </c>
       <c r="E39" t="n">
-        <v>-16.77041327079473</v>
+        <v>-16.94695530875903</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1594013145928305</v>
+        <v>-0.1317490917535595</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.222955504670376</v>
+        <v>-5.108919419499585</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.688370985132868</v>
       </c>
       <c r="E40" t="n">
-        <v>-16.3996309900079</v>
+        <v>-16.54709321512779</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1090396548567396</v>
+        <v>-0.1119143908944856</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.280406224363493</v>
+        <v>-5.125102032229074</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.406844294181092</v>
       </c>
       <c r="E41" t="n">
-        <v>-15.70539690391285</v>
+        <v>-15.85716145507562</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2215259248507187</v>
+        <v>-0.236222279492665</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.449776089254028</v>
+        <v>-5.280274221178087</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.123437918467662</v>
       </c>
       <c r="E42" t="n">
-        <v>-15.09901338220939</v>
+        <v>-15.24360576029839</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.2689737364941283</v>
+        <v>-0.299339358144537</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.647135518457651</v>
+        <v>-5.44115188114079</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8522450414554797</v>
       </c>
       <c r="E43" t="n">
-        <v>-14.63872316370308</v>
+        <v>-14.77750740163419</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.3892824174751713</v>
+        <v>-0.4132434401299215</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.374783612922419</v>
+        <v>-5.145674973125051</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6045013013719313</v>
       </c>
       <c r="E44" t="n">
-        <v>-14.03172362713438</v>
+        <v>-14.1686011523874</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.4198533774139905</v>
+        <v>-0.4478527197408124</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.512673162596889</v>
+        <v>-5.286845046407221</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3853622092182479</v>
       </c>
       <c r="E45" t="n">
-        <v>-13.45858046311908</v>
+        <v>-13.61294596593505</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.5294698003770906</v>
+        <v>-0.5703565648051002</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.683573286636768</v>
+        <v>-5.429711605072209</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1963180355799936</v>
       </c>
       <c r="E46" t="n">
-        <v>-12.5395156182352</v>
+        <v>-12.70377158194295</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.70786477194395</v>
+        <v>-0.7437451933402389</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.858995742028543</v>
+        <v>-5.569219416019627</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.03188571461553358</v>
       </c>
       <c r="E47" t="n">
-        <v>-12.24509962470959</v>
+        <v>-12.38890487269302</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7683808989426233</v>
+        <v>-0.8153104758581399</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.147241808888115</v>
+        <v>-5.827461647736942</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1135237398804494</v>
       </c>
       <c r="E48" t="n">
-        <v>-11.50400929680202</v>
+        <v>-11.64693452354941</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9378338769498954</v>
+        <v>-0.9720227019702317</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.28341042814543</v>
+        <v>-5.94655785501499</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2497270744971331</v>
       </c>
       <c r="E49" t="n">
-        <v>-11.03732425731378</v>
+        <v>-11.19302445900442</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.007873789325319</v>
+        <v>-1.049679687044309</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.201059996479114</v>
+        <v>-5.872034723342606</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3821388829288395</v>
       </c>
       <c r="E50" t="n">
-        <v>-10.49589608084415</v>
+        <v>-10.64262984394087</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.255369983949154</v>
+        <v>-1.295107831763439</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.491975461088021</v>
+        <v>-6.144029731376552</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.5178105397969182</v>
       </c>
       <c r="E51" t="n">
-        <v>-10.02793989957052</v>
+        <v>-10.18792776028345</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.232191202393111</v>
+        <v>-1.268633859579095</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.719954740299133</v>
+        <v>-6.357860224714811</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.6565388494027867</v>
       </c>
       <c r="E52" t="n">
-        <v>-9.414012640271412</v>
+        <v>-9.582614931083842</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.339421790005156</v>
+        <v>-1.377086698907869</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.74792963759162</v>
+        <v>-6.390113003015848</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.8002540956524082</v>
       </c>
       <c r="E53" t="n">
-        <v>-8.92499950642198</v>
+        <v>-9.07905211279847</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.235921514632567</v>
+        <v>-1.286170727210719</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.940884071608152</v>
+        <v>-6.559345975714109</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.9448151600096586</v>
       </c>
       <c r="E54" t="n">
-        <v>-8.25203748920487</v>
+        <v>-8.439521124537325</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.317357702014769</v>
+        <v>-1.366726893356876</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.832964134027871</v>
+        <v>-6.466181060858178</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.089823873774667</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.6395524869315</v>
+        <v>-7.801945739022947</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.527550774244043</v>
+        <v>-1.564594779274658</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.002524670186216</v>
+        <v>-6.631326823815698</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-1.230485764129337</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.241176651387802</v>
+        <v>-7.411700321898929</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.554278974785468</v>
+        <v>-1.604058842704395</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.932592315961864</v>
+        <v>-6.579210010614385</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-1.365420558500326</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.054685484449331</v>
+        <v>-7.203022841798398</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.540555532510037</v>
+        <v>-1.569811349601656</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.797807285647886</v>
+        <v>-6.442278706285831</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-1.490419415409791</v>
       </c>
       <c r="E58" t="n">
-        <v>-6.340308690062586</v>
+        <v>-6.523123323837137</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.634316906203732</v>
+        <v>-1.655784535356356</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.984019779194942</v>
+        <v>-6.648404124801832</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-1.605095268023781</v>
       </c>
       <c r="E59" t="n">
-        <v>-6.01915471798181</v>
+        <v>-6.171388613803807</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.647243440359855</v>
+        <v>-1.711636549803992</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.892302010371618</v>
+        <v>-6.56539856621535</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.707901555033355</v>
       </c>
       <c r="E60" t="n">
-        <v>-5.877026399353725</v>
+        <v>-6.035278662628896</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.76916549360698</v>
+        <v>-1.815215049286452</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.686665492542309</v>
+        <v>-6.373270374359326</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.800778343523981</v>
       </c>
       <c r="E61" t="n">
-        <v>-5.637665512156437</v>
+        <v>-5.813532867173101</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.909964002367264</v>
+        <v>-1.946372436505179</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.63024635329811</v>
+        <v>-6.336211702308111</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.884236210084184</v>
       </c>
       <c r="E62" t="n">
-        <v>-5.450538774325267</v>
+        <v>-5.612545794874228</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.961479467723946</v>
+        <v>-1.986242287504871</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.820678059771314</v>
+        <v>-6.512098613352244</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.960393116129289</v>
       </c>
       <c r="E63" t="n">
-        <v>-5.061926285494798</v>
+        <v>-5.239231008530336</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.12039174692615</v>
+        <v>-2.150175576759396</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.555664553543322</v>
+        <v>-6.269041636963567</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.029726399993673</v>
       </c>
       <c r="E64" t="n">
-        <v>-4.96389191979942</v>
+        <v>-5.127678538847937</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.218602116868738</v>
+        <v>-2.26538013457138</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.423979153582969</v>
+        <v>-6.110447143207713</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.093523433812997</v>
       </c>
       <c r="E65" t="n">
-        <v>-4.756045570866265</v>
+        <v>-4.926398126137049</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.012574478490075</v>
+        <v>-2.068343379820973</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.535736961553777</v>
+        <v>-6.219031985721894</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.151311505457034</v>
       </c>
       <c r="E66" t="n">
-        <v>-4.883374865708197</v>
+        <v>-5.022677338367205</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.155465482189398</v>
+        <v>-2.193311284346187</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.501469912423571</v>
+        <v>-6.200585762813024</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.202914136787743</v>
       </c>
       <c r="E67" t="n">
-        <v>-4.631527454972808</v>
+        <v>-4.779723031122733</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.195995349116123</v>
+        <v>-2.243961395487425</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.403508881831195</v>
+        <v>-6.11420678948837</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.246029146993573</v>
       </c>
       <c r="E68" t="n">
-        <v>-4.706192367844333</v>
+        <v>-4.851298091654368</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.178160252065617</v>
+        <v>-2.249935761878795</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.308466588338369</v>
+        <v>-6.008775356403349</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.277877844656467</v>
       </c>
       <c r="E69" t="n">
-        <v>-4.88828342860258</v>
+        <v>-5.022589336243601</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.26984868684774</v>
+        <v>-2.32130548412202</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.110412920159645</v>
+        <v>-5.815053348308711</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.292483122558469</v>
       </c>
       <c r="E70" t="n">
-        <v>-4.666889641641204</v>
+        <v>-4.812811829598014</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.131597350665119</v>
+        <v>-2.200419900330681</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.052663971047645</v>
+        <v>-5.772015420859259</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.284141973224471</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.20274435028255</v>
+        <v>-5.345381125624793</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.234418054083207</v>
+        <v>-2.303465498064647</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.945584942648474</v>
+        <v>-5.643219423957252</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.245474364200895</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.212908595558866</v>
+        <v>-5.360654383077035</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.160144261761035</v>
+        <v>-2.239649291430806</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.543997029593213</v>
+        <v>-5.284209871705953</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.17282216437141</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.506909023500796</v>
+        <v>-5.638741093667158</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.341457970427443</v>
+        <v>-2.408574256696451</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.583607763228958</v>
+        <v>-5.317768014840458</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.061034616574996</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.718280346384997</v>
+        <v>-5.84023662268019</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.195726453738442</v>
+        <v>-2.269726461676067</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.112718177835178</v>
+        <v>-4.851097642372825</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-1.910303995555822</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.168318317491385</v>
+        <v>-6.284310005408942</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.331645733645545</v>
+        <v>-2.419437629954737</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.968888484817407</v>
+        <v>-4.704618107633187</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-1.719680491494246</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.371960120518994</v>
+        <v>-6.484167717121558</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.38333231424257</v>
+        <v>-2.469838401745763</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.488900457644298</v>
+        <v>-4.248771996368903</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-1.494161044006991</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.879957268032658</v>
+        <v>-7.012723138510601</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.36580522462468</v>
+        <v>-2.454838928678068</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.000307778385419</v>
+        <v>-3.790843168179315</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-1.237793175862672</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.621810281011466</v>
+        <v>-7.737733522832886</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.407801793611479</v>
+        <v>-2.50744953157294</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.660673360347704</v>
+        <v>-3.461025875930365</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.9597062020189692</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.276360298367772</v>
+        <v>-8.398883699459528</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.35288846848229</v>
+        <v>-2.46250489144539</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.200715594308346</v>
+        <v>-3.013481298326104</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6666651540814778</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.876084992718495</v>
+        <v>-8.994384291877235</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.456628305191359</v>
+        <v>-2.556310266200887</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.755053284347847</v>
+        <v>-2.59483075130531</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3668000218000668</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.542661966967414</v>
+        <v>-9.671981087604181</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.408716037895592</v>
+        <v>-2.516484416262998</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.392885433660521</v>
+        <v>-2.24752059248654</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.06515880962223003</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.41102292163451</v>
+        <v>-10.54974360247636</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.552017718171736</v>
+        <v>-2.652017464627614</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.302565920801135</v>
+        <v>-2.154155228349065</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.233014889578749</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.41096171811089</v>
+        <v>-11.52827832688938</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.482598709668411</v>
+        <v>-2.600902897834019</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.961352353545407</v>
+        <v>-1.833035479316357</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.5240308395673258</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.36177577358851</v>
+        <v>-12.49203847255059</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.602750942429712</v>
+        <v>-2.710093977199697</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.551814915324542</v>
+        <v>-1.468173785845361</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.8054678841022798</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.6926612229001</v>
+        <v>-13.81950650606221</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.543921522800125</v>
+        <v>-2.65127922459071</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.481007428871013</v>
+        <v>-1.380719231009987</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.07530192848361</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.85859158052198</v>
+        <v>-14.99349883600763</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.57617919010803</v>
+        <v>-2.659849653628412</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.537372789039676</v>
+        <v>-1.444207874183744</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.332552693679291</v>
       </c>
       <c r="E87" t="n">
-        <v>-16.32121131986258</v>
+        <v>-16.45093622806931</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.485365887555085</v>
+        <v>-2.572131092422224</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.248232033923458</v>
+        <v>-1.178901027543738</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.572966189555174</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.74502212269363</v>
+        <v>-17.86027557057428</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.528286478839731</v>
+        <v>-2.610588020437377</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.549766421447305</v>
+        <v>-1.480112740614368</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.792427467796595</v>
       </c>
       <c r="E89" t="n">
-        <v>-19.24724770666311</v>
+        <v>-19.35517253325026</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.537912933360686</v>
+        <v>-2.616058819121455</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.23612196391411</v>
+        <v>-1.208303514841364</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.98302738537065</v>
       </c>
       <c r="E90" t="n">
-        <v>-21.03103119609823</v>
+        <v>-21.14180631368879</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.331709290734815</v>
+        <v>-2.399661597178066</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.452700079111576</v>
+        <v>-1.427580361829367</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>2.137337302005065</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.54938072471481</v>
+        <v>-22.67922296908634</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.363722507699374</v>
+        <v>-2.417677587482647</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.644222034116102</v>
+        <v>-1.610404773617651</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.245740306493285</v>
       </c>
       <c r="E92" t="n">
-        <v>-24.43578446828647</v>
+        <v>-24.55623493046666</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.203025740990746</v>
+        <v>-2.257723949817791</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.915879700676231</v>
+        <v>-1.896313895194837</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.298740291727784</v>
       </c>
       <c r="E93" t="n">
-        <v>-26.24860865851107</v>
+        <v>-26.37364500913242</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.149672009052104</v>
+        <v>-2.199725661355579</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.312084817171018</v>
+        <v>-2.289429159349734</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.287234746407395</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.28819232073348</v>
+        <v>-28.40236774259998</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.351133315017068</v>
+        <v>-2.391672959957527</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.511742079602091</v>
+        <v>-2.495671914030541</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.205709927124665</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.41713236146249</v>
+        <v>-30.53824283956971</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.34566251633299</v>
+        <v>-2.373505410440071</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.832465819078578</v>
+        <v>-2.816640103850375</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.045502980189008</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.57476842799687</v>
+        <v>-32.68725958699771</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.460651957842829</v>
+        <v>-2.48592812334478</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.145538262808344</v>
+        <v>-3.124295527971598</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>1.813027932839848</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.75848979066966</v>
+        <v>-34.8497919939093</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.599274858547336</v>
+        <v>-2.620923380954035</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.433153647782083</v>
+        <v>-3.419513318623391</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>1.495957330792134</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.78055369678449</v>
+        <v>-36.89585847923724</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.68625517971662</v>
+        <v>-2.725513904857947</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.702014802414337</v>
+        <v>-3.689474499800701</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>1.121447288018565</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.25345003762157</v>
+        <v>-39.34079214529901</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.774447974588899</v>
+        <v>-2.792126623419663</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.022674984801554</v>
+        <v>-3.993414278703069</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.6599392310191555</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.35790348745764</v>
+        <v>-41.47923397087387</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.993675931508232</v>
+        <v>-2.970829602419138</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.569979747525216</v>
+        <v>-4.513853948693032</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1775375761805957</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.38224811527588</v>
+        <v>-43.49633064601191</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.081619387030298</v>
+        <v>-3.052368458945546</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.940483354920631</v>
+        <v>-4.877082713870478</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4158914494055982</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.78952665044866</v>
+        <v>-45.9136854243374</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.367332948332808</v>
+        <v>-3.314722345437936</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.131961308863355</v>
+        <v>-5.062552078373764</v>
       </c>
     </row>
   </sheetData>
